--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="123">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
     <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
   </si>
   <si>
@@ -98,6 +104,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -342,6 +351,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -427,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -439,6 +451,7 @@
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -460,265 +473,307 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -740,2305 +795,2653 @@
       <c r="F15" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="125">
   <si>
     <t>Sezione</t>
   </si>
@@ -41,25 +41,31 @@
     <t>Attestazione di nascita</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
+    <t>Constatazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
+    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
+    <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
+  </si>
+  <si>
     <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Constatazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
-  </si>
-  <si>
-    <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
   </si>
   <si>
     <t>Formula</t>
@@ -497,7 +503,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -505,10 +511,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -520,7 +526,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -528,10 +534,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -543,7 +549,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -551,10 +557,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -571,13 +577,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -594,13 +600,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -617,13 +623,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -640,13 +646,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -663,13 +669,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
@@ -686,13 +692,13 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
@@ -709,13 +715,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
@@ -732,13 +738,13 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>10</v>
@@ -755,13 +761,13 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>10</v>
@@ -801,2647 +807,2647 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="123">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
   </si>
   <si>
     <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
@@ -445,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -537,7 +531,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -549,18 +543,18 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -577,13 +571,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -600,13 +594,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -623,13 +617,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -646,10 +640,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -669,10 +663,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -692,10 +686,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -715,10 +709,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -738,108 +732,108 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>6</v>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>34</v>
@@ -848,21 +842,21 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>36</v>
@@ -871,21 +865,21 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>38</v>
@@ -894,44 +888,44 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>43</v>
@@ -940,21 +934,21 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>45</v>
@@ -963,21 +957,21 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>47</v>
@@ -986,21 +980,21 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>49</v>
@@ -1009,21 +1003,21 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>51</v>
@@ -1032,21 +1026,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>53</v>
@@ -1055,12 +1049,12 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>54</v>
@@ -1069,7 +1063,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>55</v>
@@ -1078,12 +1072,12 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>56</v>
@@ -1092,7 +1086,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>57</v>
@@ -1101,12 +1095,12 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>58</v>
@@ -1115,7 +1109,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>59</v>
@@ -1124,21 +1118,21 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>61</v>
@@ -1147,21 +1141,21 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>63</v>
@@ -1170,21 +1164,21 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>65</v>
@@ -1193,21 +1187,21 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>67</v>
@@ -1216,21 +1210,21 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>69</v>
@@ -1239,12 +1233,12 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>70</v>
@@ -1253,7 +1247,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>71</v>
@@ -1262,12 +1256,12 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>72</v>
@@ -1276,7 +1270,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>73</v>
@@ -1285,12 +1279,12 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>74</v>
@@ -1299,7 +1293,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>75</v>
@@ -1308,12 +1302,12 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>76</v>
@@ -1322,7 +1316,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>77</v>
@@ -1331,21 +1325,21 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>79</v>
@@ -1354,21 +1348,21 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>81</v>
@@ -1377,21 +1371,21 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>83</v>
@@ -1400,90 +1394,90 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C43" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>45</v>
@@ -1492,21 +1486,21 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>47</v>
@@ -1515,21 +1509,21 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>49</v>
@@ -1538,21 +1532,21 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>51</v>
@@ -1561,21 +1555,21 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>53</v>
@@ -1584,12 +1578,12 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>54</v>
@@ -1598,21 +1592,21 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>56</v>
@@ -1621,21 +1615,21 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>58</v>
@@ -1644,53 +1638,53 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>63</v>
@@ -1699,21 +1693,21 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>65</v>
@@ -1722,21 +1716,21 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>67</v>
@@ -1745,21 +1739,21 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>69</v>
@@ -1768,12 +1762,12 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>70</v>
@@ -1782,21 +1776,21 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>72</v>
@@ -1805,21 +1799,21 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>74</v>
@@ -1828,21 +1822,21 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>76</v>
@@ -1851,53 +1845,53 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>81</v>
@@ -1906,21 +1900,21 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>83</v>
@@ -1929,7 +1923,7 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65">
@@ -1937,59 +1931,59 @@
         <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>45</v>
@@ -1998,21 +1992,21 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>47</v>
@@ -2021,21 +2015,21 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>49</v>
@@ -2044,21 +2038,21 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>51</v>
@@ -2067,21 +2061,21 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>53</v>
@@ -2090,12 +2084,12 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>54</v>
@@ -2104,21 +2098,21 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>56</v>
@@ -2127,21 +2121,21 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>58</v>
@@ -2150,53 +2144,53 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>63</v>
@@ -2205,21 +2199,21 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>65</v>
@@ -2228,21 +2222,21 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>67</v>
@@ -2251,21 +2245,21 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>69</v>
@@ -2274,12 +2268,12 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>70</v>
@@ -2288,21 +2282,21 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>72</v>
@@ -2311,21 +2305,21 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>74</v>
@@ -2334,21 +2328,21 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>76</v>
@@ -2357,53 +2351,53 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>81</v>
@@ -2412,21 +2406,21 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>83</v>
@@ -2435,7 +2429,7 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87">
@@ -2443,36 +2437,36 @@
         <v>91</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>43</v>
@@ -2481,44 +2475,44 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>97</v>
@@ -2527,44 +2521,44 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>47</v>
@@ -2573,44 +2567,44 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>101</v>
@@ -2619,44 +2613,44 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>51</v>
@@ -2665,21 +2659,21 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>53</v>
@@ -2688,21 +2682,21 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>55</v>
@@ -2711,21 +2705,21 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>57</v>
@@ -2734,12 +2728,12 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>58</v>
@@ -2748,7 +2742,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>59</v>
@@ -2757,15 +2751,15 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -2774,18 +2768,18 @@
         <v>94</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>106</v>
@@ -2794,7 +2788,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>107</v>
@@ -2803,12 +2797,12 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>108</v>
@@ -2817,7 +2811,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>109</v>
@@ -2826,67 +2820,67 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>45</v>
@@ -2895,21 +2889,21 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>47</v>
@@ -2918,21 +2912,21 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>49</v>
@@ -2941,21 +2935,21 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>51</v>
@@ -2964,21 +2958,21 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>53</v>
@@ -2987,12 +2981,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>54</v>
@@ -3001,21 +2995,21 @@
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>56</v>
@@ -3024,21 +3018,21 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>58</v>
@@ -3047,53 +3041,53 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>63</v>
@@ -3102,21 +3096,21 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>65</v>
@@ -3125,21 +3119,21 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>67</v>
@@ -3148,21 +3142,21 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>69</v>
@@ -3171,12 +3165,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>70</v>
@@ -3185,21 +3179,21 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>72</v>
@@ -3208,21 +3202,21 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>74</v>
@@ -3231,21 +3225,21 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>76</v>
@@ -3254,53 +3248,53 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>81</v>
@@ -3309,21 +3303,21 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>83</v>
@@ -3332,90 +3326,90 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>118</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>120</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>122</v>
@@ -3424,30 +3418,7 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="124">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,64 +32,67 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
+    <t>Constatazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
+    <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
-  </si>
-  <si>
-    <t>Constatazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -773,2652 +776,2652 @@
         <v>5</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
@@ -47,13 +47,13 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,1</t>
   </si>
   <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
     <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
@@ -356,7 +356,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -454,7 +454,7 @@
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="126">
   <si>
     <t>Sezione</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -442,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1132,7 +1138,7 @@
         <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>41</v>
@@ -1224,7 +1230,7 @@
         <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>41</v>
@@ -1339,7 +1345,7 @@
         <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>41</v>
@@ -1411,10 +1417,10 @@
         <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1425,22 +1431,22 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>31</v>
@@ -1448,22 +1454,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>31</v>
@@ -1471,19 +1477,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1494,19 +1500,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1517,19 +1523,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1540,19 +1546,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1563,19 +1569,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1586,22 +1592,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>31</v>
@@ -1609,22 +1615,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>31</v>
@@ -1632,22 +1638,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>31</v>
@@ -1655,22 +1661,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>31</v>
@@ -1678,22 +1684,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>31</v>
@@ -1701,19 +1707,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1724,19 +1730,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1747,19 +1753,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1770,22 +1776,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>31</v>
@@ -1793,19 +1799,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1816,19 +1822,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>18</v>
@@ -1839,22 +1845,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>31</v>
@@ -1862,22 +1868,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>31</v>
@@ -1885,22 +1891,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>31</v>
@@ -1908,19 +1914,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1934,19 +1940,19 @@
         <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>31</v>
@@ -1957,7 +1963,7 @@
         <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>15</v>
@@ -1966,7 +1972,7 @@
         <v>91</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1977,22 +1983,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>31</v>
@@ -2000,19 +2006,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2023,19 +2029,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2046,19 +2052,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2069,19 +2075,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2092,22 +2098,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>31</v>
@@ -2115,19 +2121,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2138,19 +2144,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>18</v>
@@ -2161,19 +2167,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2184,22 +2190,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>31</v>
@@ -2207,22 +2213,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>31</v>
@@ -2230,19 +2236,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2253,19 +2259,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2276,22 +2282,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>31</v>
@@ -2299,19 +2305,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2322,22 +2328,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>31</v>
@@ -2345,19 +2351,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>18</v>
@@ -2368,19 +2374,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2391,22 +2397,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>31</v>
@@ -2414,22 +2420,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>31</v>
@@ -2440,16 +2446,16 @@
         <v>92</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2463,7 +2469,7 @@
         <v>92</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>15</v>
@@ -2472,7 +2478,7 @@
         <v>93</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2486,16 +2492,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2506,10 +2512,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
@@ -2518,7 +2524,7 @@
         <v>95</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2529,19 +2535,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2552,19 +2558,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2575,16 +2581,16 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>100</v>
@@ -2598,10 +2604,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
@@ -2610,7 +2616,7 @@
         <v>95</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2621,19 +2627,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2644,19 +2650,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2667,19 +2673,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2690,19 +2696,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2713,19 +2719,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2736,19 +2742,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2759,10 +2765,10 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -2771,7 +2777,7 @@
         <v>95</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2782,10 +2788,10 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -2794,7 +2800,7 @@
         <v>95</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2805,10 +2811,10 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2817,7 +2823,7 @@
         <v>95</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2828,599 +2834,691 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C106" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="G126" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E129" s="2" t="s">
+      <c r="C132" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="127">
   <si>
     <t>Sezione</t>
   </si>
@@ -362,7 +362,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -460,7 +463,7 @@
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3412,7 +3415,7 @@
         <v>113</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>15</v>
@@ -3432,10 +3435,10 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>15</v>
@@ -3444,7 +3447,7 @@
         <v>88</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3455,10 +3458,10 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -3467,7 +3470,7 @@
         <v>88</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>21</v>
@@ -3478,10 +3481,10 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>15</v>
@@ -3490,7 +3493,7 @@
         <v>29</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3501,10 +3504,10 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>15</v>
@@ -3513,7 +3516,7 @@
         <v>97</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="126">
   <si>
     <t>Sezione</t>
   </si>
@@ -363,9 +363,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3415,7 +3412,7 @@
         <v>113</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>15</v>
@@ -3435,10 +3432,10 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>15</v>
@@ -3447,7 +3444,7 @@
         <v>88</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3458,10 +3455,10 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -3470,7 +3467,7 @@
         <v>88</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>21</v>
@@ -3481,10 +3478,10 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>15</v>
@@ -3493,7 +3490,7 @@
         <v>29</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3504,10 +3501,10 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>15</v>
@@ -3516,7 +3513,7 @@
         <v>97</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="127">
   <si>
     <t>Sezione</t>
   </si>
@@ -363,6 +363,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3412,7 +3415,7 @@
         <v>113</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>15</v>
@@ -3432,10 +3435,10 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>15</v>
@@ -3444,7 +3447,7 @@
         <v>88</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3455,10 +3458,10 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -3467,7 +3470,7 @@
         <v>88</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>21</v>
@@ -3478,10 +3481,10 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>15</v>
@@ -3490,7 +3493,7 @@
         <v>29</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3501,10 +3504,10 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>15</v>
@@ -3513,7 +3516,7 @@
         <v>97</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="137">
   <si>
     <t>Sezione</t>
   </si>
@@ -288,6 +288,36 @@
   </si>
   <si>
     <t>evento.madre</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -451,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H147"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -461,7 +491,7 @@
     <col min="2" max="2" width="65.09375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1986,22 +2016,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>31</v>
@@ -2009,22 +2039,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>31</v>
@@ -2032,19 +2062,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2055,22 +2085,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>31</v>
@@ -2078,22 +2108,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>31</v>
@@ -2101,22 +2131,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>31</v>
@@ -2124,19 +2154,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2147,22 +2177,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>31</v>
@@ -2170,19 +2200,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2193,22 +2223,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>31</v>
@@ -2216,22 +2246,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>31</v>
@@ -2239,19 +2269,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2262,22 +2292,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>31</v>
@@ -2285,19 +2315,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2308,22 +2338,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>31</v>
@@ -2331,22 +2361,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>31</v>
@@ -2354,22 +2384,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>31</v>
@@ -2377,19 +2407,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2400,22 +2430,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>31</v>
@@ -2423,22 +2453,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>31</v>
@@ -2446,19 +2476,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2469,22 +2499,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>31</v>
@@ -2492,19 +2522,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2515,22 +2545,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>31</v>
@@ -2538,22 +2568,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>31</v>
@@ -2561,19 +2591,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2584,19 +2614,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2607,19 +2637,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2630,19 +2660,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2653,22 +2683,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>31</v>
@@ -2676,19 +2706,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2699,22 +2729,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>31</v>
@@ -2722,22 +2752,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>31</v>
@@ -2745,19 +2775,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2768,19 +2798,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2791,19 +2821,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2814,19 +2844,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2837,19 +2867,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2860,19 +2890,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2883,16 +2913,16 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>112</v>
@@ -2906,622 +2936,944 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F107" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F137" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E133" s="2" t="s">
+      <c r="G137" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="139">
   <si>
     <t>Sezione</t>
   </si>
@@ -149,6 +149,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -203,13 +209,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -481,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H147"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -987,7 +993,7 @@
         <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>41</v>
@@ -1079,7 +1085,7 @@
         <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>41</v>
@@ -1194,7 +1200,7 @@
         <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>41</v>
@@ -1217,7 +1223,7 @@
         <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>41</v>
@@ -1286,7 +1292,7 @@
         <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>41</v>
@@ -1401,7 +1407,7 @@
         <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>41</v>
@@ -1473,10 +1479,10 @@
         <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1487,22 +1493,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>31</v>
@@ -1510,22 +1516,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>31</v>
@@ -1533,19 +1539,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1556,19 +1562,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1579,19 +1585,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1602,19 +1608,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1625,19 +1631,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1648,22 +1654,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>31</v>
@@ -1671,19 +1677,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1694,19 +1700,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>18</v>
@@ -1717,22 +1723,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>31</v>
@@ -1740,22 +1746,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>31</v>
@@ -1763,22 +1769,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>31</v>
@@ -1786,19 +1792,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1809,19 +1815,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1832,19 +1838,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1855,22 +1861,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>31</v>
@@ -1878,19 +1884,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1901,19 +1907,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>18</v>
@@ -1924,22 +1930,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>31</v>
@@ -1947,22 +1953,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>31</v>
@@ -1970,22 +1976,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>31</v>
@@ -1993,19 +1999,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2016,19 +2022,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2039,22 +2045,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>31</v>
@@ -2062,19 +2068,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2085,19 +2091,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>18</v>
@@ -2108,22 +2114,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>31</v>
@@ -2131,19 +2137,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>18</v>
@@ -2154,22 +2160,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>31</v>
@@ -2177,22 +2183,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>31</v>
@@ -2200,19 +2206,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2223,19 +2229,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2246,19 +2252,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2269,19 +2275,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2292,22 +2298,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>31</v>
@@ -2315,19 +2321,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2338,22 +2344,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>31</v>
@@ -2361,19 +2367,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>18</v>
@@ -2384,19 +2390,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2407,22 +2413,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>31</v>
@@ -2430,22 +2436,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>31</v>
@@ -2453,19 +2459,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2476,19 +2482,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2499,22 +2505,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>31</v>
@@ -2522,19 +2528,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2545,22 +2551,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>31</v>
@@ -2568,19 +2574,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>18</v>
@@ -2591,19 +2597,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2614,22 +2620,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>31</v>
@@ -2637,22 +2643,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>31</v>
@@ -2660,19 +2666,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2683,22 +2689,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>31</v>
@@ -2706,19 +2712,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2729,22 +2735,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>31</v>
@@ -2752,19 +2758,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>18</v>
@@ -2778,7 +2784,7 @@
         <v>104</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -2787,7 +2793,7 @@
         <v>105</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2801,19 +2807,19 @@
         <v>104</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>31</v>
@@ -2824,19 +2830,19 @@
         <v>104</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>31</v>
@@ -2844,10 +2850,10 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2856,7 +2862,7 @@
         <v>107</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2867,19 +2873,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2890,19 +2896,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2913,16 +2919,16 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>112</v>
@@ -2936,19 +2942,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2959,19 +2965,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2982,19 +2988,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3005,19 +3011,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3028,19 +3034,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3051,19 +3057,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3074,19 +3080,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3097,10 +3103,10 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -3109,7 +3115,7 @@
         <v>107</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3120,19 +3126,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3143,19 +3149,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3166,19 +3172,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3189,19 +3195,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3212,10 +3218,10 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
@@ -3224,7 +3230,7 @@
         <v>107</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3235,10 +3241,10 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
@@ -3247,7 +3253,7 @@
         <v>107</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3258,622 +3264,737 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C124" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B147" s="2" t="s">
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E147" s="2" t="s">
+      <c r="C151" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="2" t="s">
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="141">
   <si>
     <t>Sezione</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -487,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:H156"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1269,7 +1275,7 @@
         <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>41</v>
@@ -1292,7 +1298,7 @@
         <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>41</v>
@@ -1430,7 +1436,7 @@
         <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>41</v>
@@ -1502,10 +1508,10 @@
         <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1516,22 +1522,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>31</v>
@@ -1539,22 +1545,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>31</v>
@@ -1562,19 +1568,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1585,19 +1591,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1608,19 +1614,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1631,19 +1637,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1654,19 +1660,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1677,19 +1683,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1700,22 +1706,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>31</v>
@@ -1723,22 +1729,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>31</v>
@@ -1746,22 +1752,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>31</v>
@@ -1769,19 +1775,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>18</v>
@@ -1792,22 +1798,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>31</v>
@@ -1815,19 +1821,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1838,19 +1844,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1861,22 +1867,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>31</v>
@@ -1884,19 +1890,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1907,19 +1913,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>18</v>
@@ -1930,19 +1936,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1953,19 +1959,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>18</v>
@@ -1976,22 +1982,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>31</v>
@@ -1999,22 +2005,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>31</v>
@@ -2022,22 +2028,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>31</v>
@@ -2045,19 +2051,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2068,19 +2074,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2091,22 +2097,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>31</v>
@@ -2114,19 +2120,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2137,19 +2143,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>18</v>
@@ -2160,22 +2166,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>31</v>
@@ -2183,19 +2189,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>18</v>
@@ -2206,22 +2212,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>31</v>
@@ -2229,22 +2235,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>31</v>
@@ -2252,19 +2258,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2275,19 +2281,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2298,19 +2304,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2321,19 +2327,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2344,19 +2350,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2367,22 +2373,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>31</v>
@@ -2390,19 +2396,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2413,19 +2419,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>18</v>
@@ -2436,22 +2442,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>31</v>
@@ -2459,22 +2465,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>31</v>
@@ -2482,22 +2488,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>31</v>
@@ -2505,19 +2511,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2528,19 +2534,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2551,22 +2557,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>31</v>
@@ -2574,22 +2580,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>31</v>
@@ -2597,22 +2603,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>31</v>
@@ -2620,22 +2626,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>31</v>
@@ -2643,19 +2649,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>18</v>
@@ -2666,19 +2672,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2689,22 +2695,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>31</v>
@@ -2712,22 +2718,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>31</v>
@@ -2735,19 +2741,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2758,22 +2764,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>31</v>
@@ -2781,19 +2787,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2804,22 +2810,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>31</v>
@@ -2827,19 +2833,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>18</v>
@@ -2853,7 +2859,7 @@
         <v>106</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2862,7 +2868,7 @@
         <v>107</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2876,19 +2882,19 @@
         <v>106</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>31</v>
@@ -2899,19 +2905,19 @@
         <v>106</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>31</v>
@@ -2919,10 +2925,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -2931,7 +2937,7 @@
         <v>109</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2942,19 +2948,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2965,19 +2971,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2988,19 +2994,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3011,19 +3017,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3034,10 +3040,10 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>15</v>
@@ -3046,7 +3052,7 @@
         <v>109</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3057,19 +3063,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3080,19 +3086,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3103,19 +3109,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3126,19 +3132,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3149,19 +3155,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3172,19 +3178,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3195,10 +3201,10 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -3207,7 +3213,7 @@
         <v>109</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3218,19 +3224,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3241,19 +3247,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3264,19 +3270,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3287,19 +3293,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3310,10 +3316,10 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
@@ -3322,7 +3328,7 @@
         <v>109</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3333,10 +3339,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -3345,7 +3351,7 @@
         <v>109</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3356,645 +3362,737 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F148" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G148" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B152" s="2" t="s">
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E152" s="2" t="s">
+      <c r="C155" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="143">
   <si>
     <t>Sezione</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -493,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1459,7 +1465,7 @@
         <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>41</v>
@@ -1531,10 +1537,10 @@
         <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1545,22 +1551,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>31</v>
@@ -1568,22 +1574,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>31</v>
@@ -1591,19 +1597,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1614,19 +1620,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1637,19 +1643,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1660,19 +1666,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1683,19 +1689,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1706,19 +1712,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1729,22 +1735,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>31</v>
@@ -1752,22 +1758,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>31</v>
@@ -1775,22 +1781,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>31</v>
@@ -1798,19 +1804,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>18</v>
@@ -1821,22 +1827,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>31</v>
@@ -1844,19 +1850,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1867,22 +1873,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>31</v>
@@ -1890,22 +1896,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>31</v>
@@ -1913,19 +1919,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>18</v>
@@ -1936,19 +1942,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1959,19 +1965,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>18</v>
@@ -1982,19 +1988,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2005,19 +2011,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>18</v>
@@ -2028,22 +2034,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>31</v>
@@ -2051,22 +2057,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>31</v>
@@ -2074,22 +2080,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>31</v>
@@ -2097,19 +2103,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2120,19 +2126,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2143,22 +2149,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>31</v>
@@ -2166,19 +2172,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2189,19 +2195,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>18</v>
@@ -2212,22 +2218,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>31</v>
@@ -2235,19 +2241,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>18</v>
@@ -2258,22 +2264,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>31</v>
@@ -2281,22 +2287,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>31</v>
@@ -2304,19 +2310,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2327,19 +2333,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2350,19 +2356,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2373,19 +2379,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2396,19 +2402,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2419,22 +2425,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>31</v>
@@ -2442,19 +2448,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2465,19 +2471,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>18</v>
@@ -2488,22 +2494,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>31</v>
@@ -2511,22 +2517,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>31</v>
@@ -2534,22 +2540,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>31</v>
@@ -2557,22 +2563,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>31</v>
@@ -2580,19 +2586,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2603,19 +2609,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>18</v>
@@ -2626,22 +2632,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>31</v>
@@ -2649,22 +2655,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>31</v>
@@ -2672,22 +2678,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>31</v>
@@ -2695,22 +2701,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>31</v>
@@ -2718,19 +2724,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>18</v>
@@ -2741,19 +2747,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2764,22 +2770,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>31</v>
@@ -2787,22 +2793,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>31</v>
@@ -2810,19 +2816,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2833,22 +2839,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>31</v>
@@ -2856,19 +2862,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2879,22 +2885,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>31</v>
@@ -2902,19 +2908,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>18</v>
@@ -2928,7 +2934,7 @@
         <v>108</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -2937,7 +2943,7 @@
         <v>109</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2951,19 +2957,19 @@
         <v>108</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>31</v>
@@ -2974,19 +2980,19 @@
         <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>31</v>
@@ -2994,10 +3000,10 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3006,7 +3012,7 @@
         <v>111</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3017,19 +3023,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3040,19 +3046,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3063,19 +3069,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3086,19 +3092,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3109,10 +3115,10 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>15</v>
@@ -3121,7 +3127,7 @@
         <v>111</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3132,19 +3138,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3155,19 +3161,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3178,19 +3184,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3201,19 +3207,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3224,19 +3230,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3247,19 +3253,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3270,10 +3276,10 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
@@ -3282,7 +3288,7 @@
         <v>111</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3293,19 +3299,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3316,19 +3322,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3339,19 +3345,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3362,19 +3368,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3385,10 +3391,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3397,7 +3403,7 @@
         <v>111</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3408,10 +3414,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3420,7 +3426,7 @@
         <v>111</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3431,668 +3437,760 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F152" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G152" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B156" s="2" t="s">
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E156" s="2" t="s">
+      <c r="C159" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="177">
   <si>
     <t>Sezione</t>
   </si>
@@ -56,6 +56,12 @@
     <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
+    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita.tipoAccertamento,=,3</t>
+  </si>
+  <si>
     <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
   </si>
   <si>
@@ -128,6 +134,96 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Luogo Redazione</t>
+  </si>
+  <si>
+    <t>Luogo</t>
+  </si>
+  <si>
+    <t>evento.luogoRedazione</t>
+  </si>
+  <si>
+    <t>luogo</t>
+  </si>
+  <si>
+    <t>evento.redattoNellaCasaComunale,!=,false</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Indirizzo</t>
+  </si>
+  <si>
+    <t>indirizzo</t>
+  </si>
+  <si>
+    <t>Numero Civico</t>
+  </si>
+  <si>
+    <t>numeroCivico</t>
+  </si>
+  <si>
+    <t>Data Redazione Nascita</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita</t>
+  </si>
+  <si>
+    <t>dataRedazione</t>
+  </si>
+  <si>
+    <t>Ora Redazione</t>
+  </si>
+  <si>
+    <t>oraRedazione</t>
+  </si>
+  <si>
+    <t>Minuti Redazione</t>
+  </si>
+  <si>
+    <t>minutiRedazione</t>
+  </si>
+  <si>
     <t>Dichiarante</t>
   </si>
   <si>
@@ -203,9 +299,6 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
-    <t>Località estera</t>
-  </si>
-  <si>
     <t>localitaEsteraNascita</t>
   </si>
   <si>
@@ -302,6 +395,15 @@
     <t>titoloDichiarante</t>
   </si>
   <si>
+    <t>Ufficiale dello Stato Civile</t>
+  </si>
+  <si>
+    <t>evento.ufficialeStatoCivile</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
     <t>Madre</t>
   </si>
   <si>
@@ -353,9 +455,6 @@
     <t>Assegnazione cognome</t>
   </si>
   <si>
-    <t>evento.datiDiNascita</t>
-  </si>
-  <si>
     <t>sceltaCognome</t>
   </si>
   <si>
@@ -413,9 +512,6 @@
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
     <t>Dettagli evento</t>
   </si>
   <si>
@@ -441,6 +537,12 @@
   </si>
   <si>
     <t>tipoAccertamento</t>
+  </si>
+  <si>
+    <t>Redatto nella casa comunale</t>
+  </si>
+  <si>
+    <t>redattoNellaCasaComunale</t>
   </si>
 </sst>
 </file>
@@ -499,16 +601,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.76953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="65.09375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="24.39453125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
@@ -591,30 +693,30 @@
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -631,13 +733,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -654,13 +756,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -677,13 +779,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -700,10 +802,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -723,10 +825,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -746,10 +848,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -769,10 +871,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -792,10 +894,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -814,86 +916,86 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>35</v>
@@ -902,21 +1004,21 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>37</v>
@@ -925,21 +1027,21 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>39</v>
@@ -948,3250 +1050,4193 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F105" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D160" s="2" t="s">
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E160" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D199" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="177">
   <si>
     <t>Sezione</t>
   </si>
@@ -601,7 +601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2323,7 +2323,7 @@
         <v>127</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -2332,7 +2332,7 @@
         <v>128</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2346,7 +2346,7 @@
         <v>127</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -2355,7 +2355,7 @@
         <v>128</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2369,7 +2369,7 @@
         <v>127</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2378,7 +2378,7 @@
         <v>128</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2392,7 +2392,7 @@
         <v>127</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2401,7 +2401,7 @@
         <v>128</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2415,7 +2415,7 @@
         <v>127</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2424,7 +2424,7 @@
         <v>128</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2438,7 +2438,7 @@
         <v>127</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2447,7 +2447,7 @@
         <v>128</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2461,7 +2461,7 @@
         <v>127</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -2470,7 +2470,7 @@
         <v>128</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2484,7 +2484,7 @@
         <v>127</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2493,7 +2493,7 @@
         <v>128</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2507,7 +2507,7 @@
         <v>127</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2516,7 +2516,7 @@
         <v>128</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2530,7 +2530,7 @@
         <v>127</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2539,7 +2539,7 @@
         <v>128</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2553,7 +2553,7 @@
         <v>127</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -2562,7 +2562,7 @@
         <v>128</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2573,25 +2573,25 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87">
@@ -2599,19 +2599,19 @@
         <v>130</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>131</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>33</v>
@@ -2622,16 +2622,16 @@
         <v>130</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>131</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2645,16 +2645,16 @@
         <v>130</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>131</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2668,7 +2668,7 @@
         <v>130</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
@@ -2677,7 +2677,7 @@
         <v>131</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2691,7 +2691,7 @@
         <v>130</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
@@ -2700,7 +2700,7 @@
         <v>131</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2714,7 +2714,7 @@
         <v>130</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
@@ -2723,7 +2723,7 @@
         <v>131</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2737,16 +2737,16 @@
         <v>130</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>131</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2760,7 +2760,7 @@
         <v>130</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -2769,10 +2769,10 @@
         <v>131</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>33</v>
@@ -2783,7 +2783,7 @@
         <v>130</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -2792,10 +2792,10 @@
         <v>131</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>33</v>
@@ -2806,7 +2806,7 @@
         <v>130</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2815,10 +2815,10 @@
         <v>131</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>33</v>
@@ -2829,7 +2829,7 @@
         <v>130</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -2838,7 +2838,7 @@
         <v>131</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>20</v>
@@ -2852,19 +2852,19 @@
         <v>130</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>131</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>33</v>
@@ -2875,7 +2875,7 @@
         <v>130</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
@@ -2884,7 +2884,7 @@
         <v>131</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2898,19 +2898,19 @@
         <v>130</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>131</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>33</v>
@@ -2921,7 +2921,7 @@
         <v>130</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -2930,7 +2930,7 @@
         <v>131</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>20</v>
@@ -2944,7 +2944,7 @@
         <v>130</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -2953,10 +2953,10 @@
         <v>131</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>33</v>
@@ -2967,7 +2967,7 @@
         <v>130</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2976,10 +2976,10 @@
         <v>131</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>33</v>
@@ -2990,7 +2990,7 @@
         <v>130</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2999,10 +2999,10 @@
         <v>131</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>33</v>
@@ -3013,7 +3013,7 @@
         <v>130</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3022,10 +3022,10 @@
         <v>131</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>33</v>
@@ -3036,7 +3036,7 @@
         <v>130</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3045,10 +3045,10 @@
         <v>131</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>33</v>
@@ -3059,7 +3059,7 @@
         <v>130</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3068,10 +3068,10 @@
         <v>131</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>33</v>
@@ -3082,7 +3082,7 @@
         <v>130</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3091,7 +3091,7 @@
         <v>131</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>20</v>
@@ -3105,19 +3105,19 @@
         <v>130</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>131</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>33</v>
@@ -3128,7 +3128,7 @@
         <v>130</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
@@ -3137,7 +3137,7 @@
         <v>131</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3151,7 +3151,7 @@
         <v>130</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
@@ -3160,7 +3160,7 @@
         <v>131</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3174,16 +3174,16 @@
         <v>130</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>131</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3197,7 +3197,7 @@
         <v>130</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
@@ -3206,10 +3206,10 @@
         <v>131</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>33</v>
@@ -3220,7 +3220,7 @@
         <v>130</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -3229,10 +3229,10 @@
         <v>131</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>33</v>
@@ -3243,7 +3243,7 @@
         <v>130</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -3252,10 +3252,10 @@
         <v>131</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>33</v>
@@ -3266,7 +3266,7 @@
         <v>130</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -3275,7 +3275,7 @@
         <v>131</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>20</v>
@@ -3286,19 +3286,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>20</v>
@@ -3312,19 +3312,19 @@
         <v>142</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>33</v>
@@ -3335,16 +3335,16 @@
         <v>142</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3358,16 +3358,16 @@
         <v>142</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3381,7 +3381,7 @@
         <v>142</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>17</v>
@@ -3390,7 +3390,7 @@
         <v>143</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3404,7 +3404,7 @@
         <v>142</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
@@ -3413,7 +3413,7 @@
         <v>143</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3427,7 +3427,7 @@
         <v>142</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
@@ -3436,7 +3436,7 @@
         <v>143</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3450,16 +3450,16 @@
         <v>142</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3473,7 +3473,7 @@
         <v>142</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -3482,10 +3482,10 @@
         <v>143</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>33</v>
@@ -3496,7 +3496,7 @@
         <v>142</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3505,10 +3505,10 @@
         <v>143</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>33</v>
@@ -3519,7 +3519,7 @@
         <v>142</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3528,10 +3528,10 @@
         <v>143</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>33</v>
@@ -3542,7 +3542,7 @@
         <v>142</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3551,7 +3551,7 @@
         <v>143</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>20</v>
@@ -3565,19 +3565,19 @@
         <v>142</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>33</v>
@@ -3588,7 +3588,7 @@
         <v>142</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
@@ -3597,7 +3597,7 @@
         <v>143</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3611,19 +3611,19 @@
         <v>142</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>33</v>
@@ -3634,7 +3634,7 @@
         <v>142</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -3643,7 +3643,7 @@
         <v>143</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>20</v>
@@ -3657,7 +3657,7 @@
         <v>142</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -3666,10 +3666,10 @@
         <v>143</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>33</v>
@@ -3680,7 +3680,7 @@
         <v>142</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -3689,10 +3689,10 @@
         <v>143</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>33</v>
@@ -3703,7 +3703,7 @@
         <v>142</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -3712,10 +3712,10 @@
         <v>143</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>33</v>
@@ -3726,7 +3726,7 @@
         <v>142</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -3735,10 +3735,10 @@
         <v>143</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>33</v>
@@ -3749,7 +3749,7 @@
         <v>142</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -3758,10 +3758,10 @@
         <v>143</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>33</v>
@@ -3772,7 +3772,7 @@
         <v>142</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -3781,10 +3781,10 @@
         <v>143</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>33</v>
@@ -3795,7 +3795,7 @@
         <v>142</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -3804,7 +3804,7 @@
         <v>143</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>20</v>
@@ -3818,19 +3818,19 @@
         <v>142</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>33</v>
@@ -3841,7 +3841,7 @@
         <v>142</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
@@ -3850,7 +3850,7 @@
         <v>143</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3864,7 +3864,7 @@
         <v>142</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>17</v>
@@ -3873,7 +3873,7 @@
         <v>143</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3887,16 +3887,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3910,7 +3910,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
@@ -3919,10 +3919,10 @@
         <v>143</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>33</v>
@@ -3933,7 +3933,7 @@
         <v>142</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
@@ -3942,10 +3942,10 @@
         <v>143</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>33</v>
@@ -3956,7 +3956,7 @@
         <v>142</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -3965,10 +3965,10 @@
         <v>143</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>33</v>
@@ -3979,7 +3979,7 @@
         <v>142</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -3988,7 +3988,7 @@
         <v>143</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>20</v>
@@ -3999,22 +3999,22 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>33</v>
@@ -4025,16 +4025,16 @@
         <v>144</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4048,16 +4048,16 @@
         <v>144</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4071,7 +4071,7 @@
         <v>144</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
@@ -4080,7 +4080,7 @@
         <v>64</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4094,16 +4094,16 @@
         <v>144</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4117,16 +4117,16 @@
         <v>144</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4140,7 +4140,7 @@
         <v>144</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>17</v>
@@ -4149,7 +4149,7 @@
         <v>145</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4163,16 +4163,16 @@
         <v>144</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4186,7 +4186,7 @@
         <v>144</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>17</v>
@@ -4195,7 +4195,7 @@
         <v>64</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4209,16 +4209,16 @@
         <v>144</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4232,7 +4232,7 @@
         <v>144</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>83</v>
+        <v>154</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>17</v>
@@ -4241,7 +4241,7 @@
         <v>145</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4255,16 +4255,16 @@
         <v>144</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4278,7 +4278,7 @@
         <v>144</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
@@ -4287,7 +4287,7 @@
         <v>145</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4301,7 +4301,7 @@
         <v>144</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4310,7 +4310,7 @@
         <v>145</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4324,7 +4324,7 @@
         <v>144</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -4333,7 +4333,7 @@
         <v>145</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4347,16 +4347,16 @@
         <v>144</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4370,16 +4370,16 @@
         <v>144</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4393,7 +4393,7 @@
         <v>144</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
@@ -4402,7 +4402,7 @@
         <v>145</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4416,7 +4416,7 @@
         <v>144</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -4425,7 +4425,7 @@
         <v>145</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4439,7 +4439,7 @@
         <v>144</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -4448,7 +4448,7 @@
         <v>145</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4462,16 +4462,16 @@
         <v>144</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4485,7 +4485,7 @@
         <v>144</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -4494,7 +4494,7 @@
         <v>64</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4505,25 +4505,25 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
     </row>
     <row r="171">
@@ -4531,19 +4531,19 @@
         <v>162</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>165</v>
@@ -4554,16 +4554,16 @@
         <v>162</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4577,16 +4577,16 @@
         <v>162</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4600,7 +4600,7 @@
         <v>162</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>17</v>
@@ -4609,7 +4609,7 @@
         <v>163</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4623,7 +4623,7 @@
         <v>162</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>17</v>
@@ -4632,7 +4632,7 @@
         <v>163</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4646,7 +4646,7 @@
         <v>162</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>17</v>
@@ -4655,7 +4655,7 @@
         <v>163</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4669,16 +4669,16 @@
         <v>162</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4692,7 +4692,7 @@
         <v>162</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
@@ -4701,10 +4701,10 @@
         <v>163</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>165</v>
@@ -4715,7 +4715,7 @@
         <v>162</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
@@ -4724,10 +4724,10 @@
         <v>163</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>165</v>
@@ -4738,7 +4738,7 @@
         <v>162</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
@@ -4747,10 +4747,10 @@
         <v>163</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>165</v>
@@ -4761,7 +4761,7 @@
         <v>162</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
@@ -4770,7 +4770,7 @@
         <v>163</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>164</v>
@@ -4784,19 +4784,19 @@
         <v>162</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>165</v>
@@ -4807,7 +4807,7 @@
         <v>162</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>17</v>
@@ -4816,7 +4816,7 @@
         <v>163</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4830,19 +4830,19 @@
         <v>162</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>165</v>
@@ -4853,7 +4853,7 @@
         <v>162</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
@@ -4862,7 +4862,7 @@
         <v>163</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>164</v>
@@ -4876,7 +4876,7 @@
         <v>162</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
@@ -4885,10 +4885,10 @@
         <v>163</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>165</v>
@@ -4899,7 +4899,7 @@
         <v>162</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
@@ -4908,10 +4908,10 @@
         <v>163</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>165</v>
@@ -4922,7 +4922,7 @@
         <v>162</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
@@ -4931,10 +4931,10 @@
         <v>163</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>165</v>
@@ -4945,7 +4945,7 @@
         <v>162</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
@@ -4954,10 +4954,10 @@
         <v>163</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>165</v>
@@ -4968,7 +4968,7 @@
         <v>162</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
@@ -4977,10 +4977,10 @@
         <v>163</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
         <v>165</v>
@@ -4991,7 +4991,7 @@
         <v>162</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
@@ -5000,10 +5000,10 @@
         <v>163</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>165</v>
@@ -5014,7 +5014,7 @@
         <v>162</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
@@ -5023,7 +5023,7 @@
         <v>163</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>164</v>
@@ -5037,19 +5037,19 @@
         <v>162</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
         <v>165</v>
@@ -5060,7 +5060,7 @@
         <v>162</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>17</v>
@@ -5069,7 +5069,7 @@
         <v>163</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
@@ -5083,7 +5083,7 @@
         <v>162</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>17</v>
@@ -5092,7 +5092,7 @@
         <v>163</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
@@ -5103,25 +5103,25 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
     </row>
     <row r="197">
@@ -5129,19 +5129,19 @@
         <v>166</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>125</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>33</v>
@@ -5152,19 +5152,19 @@
         <v>166</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>33</v>
@@ -5175,16 +5175,16 @@
         <v>166</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
@@ -5198,44 +5198,21 @@
         <v>166</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G201" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
@@ -1682,7 +1682,7 @@
         <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>73</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
@@ -4787,7 +4787,7 @@
         <v>96</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>163</v>
@@ -4810,7 +4810,7 @@
         <v>98</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>163</v>
@@ -4819,7 +4819,7 @@
         <v>99</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>165</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_080.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="181">
   <si>
     <t>Sezione</t>
   </si>
@@ -255,6 +255,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -601,7 +613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1475,7 +1487,7 @@
         <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>73</v>
@@ -1498,7 +1510,7 @@
         <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>73</v>
@@ -1544,7 +1556,7 @@
         <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>73</v>
@@ -1567,7 +1579,7 @@
         <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>73</v>
@@ -1633,7 +1645,7 @@
         <v>70</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
@@ -1642,7 +1654,7 @@
         <v>73</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1656,7 +1668,7 @@
         <v>70</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -1665,7 +1677,7 @@
         <v>73</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1679,7 +1691,7 @@
         <v>70</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
@@ -1912,7 +1924,7 @@
         <v>118</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>73</v>
@@ -1935,7 +1947,7 @@
         <v>120</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>73</v>
@@ -1984,10 +1996,10 @@
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1998,65 +2010,65 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2067,19 +2079,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2090,19 +2102,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2113,19 +2125,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2136,19 +2148,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2159,19 +2171,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2182,19 +2194,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2205,19 +2217,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2228,19 +2240,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2251,19 +2263,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2274,19 +2286,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2297,19 +2309,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2320,19 +2332,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2343,19 +2355,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2366,19 +2378,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2389,19 +2401,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2412,19 +2424,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2435,19 +2447,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2458,19 +2470,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2481,19 +2493,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2504,19 +2516,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2527,19 +2539,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2550,19 +2562,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2573,114 +2585,114 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>33</v>
@@ -2688,19 +2700,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2711,19 +2723,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2734,19 +2746,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2757,22 +2769,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>33</v>
@@ -2780,22 +2792,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>33</v>
@@ -2803,22 +2815,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>33</v>
@@ -2826,22 +2838,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>33</v>
@@ -2849,19 +2861,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2872,19 +2884,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2895,19 +2907,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>20</v>
@@ -2918,22 +2930,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>33</v>
@@ -2941,22 +2953,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>33</v>
@@ -2964,19 +2976,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>20</v>
@@ -2987,19 +2999,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3010,22 +3022,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>33</v>
@@ -3033,22 +3045,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>33</v>
@@ -3056,19 +3068,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>20</v>
@@ -3079,22 +3091,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>33</v>
@@ -3102,22 +3114,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>33</v>
@@ -3125,19 +3137,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3148,22 +3160,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>33</v>
@@ -3171,19 +3183,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3194,19 +3206,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>20</v>
@@ -3217,22 +3229,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>33</v>
@@ -3240,22 +3252,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>33</v>
@@ -3263,22 +3275,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>33</v>
@@ -3286,22 +3298,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>33</v>
@@ -3309,19 +3321,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3332,22 +3344,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>33</v>
@@ -3355,19 +3367,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3378,22 +3390,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>33</v>
@@ -3401,22 +3413,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>33</v>
@@ -3424,22 +3436,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>33</v>
@@ -3447,19 +3459,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3470,22 +3482,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>33</v>
@@ -3493,19 +3505,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3516,22 +3528,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>33</v>
@@ -3539,19 +3551,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>20</v>
@@ -3562,19 +3574,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3585,19 +3597,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3608,22 +3620,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>33</v>
@@ -3631,22 +3643,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>33</v>
@@ -3654,22 +3666,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>33</v>
@@ -3677,22 +3689,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>33</v>
@@ -3700,22 +3712,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>33</v>
@@ -3723,19 +3735,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>20</v>
@@ -3746,19 +3758,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3769,22 +3781,22 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>33</v>
@@ -3792,19 +3804,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>20</v>
@@ -3815,22 +3827,22 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>33</v>
@@ -3838,19 +3850,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3861,22 +3873,22 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>33</v>
@@ -3884,19 +3896,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3907,19 +3919,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>20</v>
@@ -3930,19 +3942,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3953,19 +3965,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>20</v>
@@ -3976,19 +3988,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>20</v>
@@ -3999,19 +4011,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4022,19 +4034,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4045,19 +4057,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4068,19 +4080,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4091,22 +4103,22 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>33</v>
@@ -4114,19 +4126,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4137,22 +4149,22 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>33</v>
@@ -4160,22 +4172,22 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="C155" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>33</v>
@@ -4183,19 +4195,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4206,19 +4218,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4229,19 +4241,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4252,19 +4264,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4275,19 +4287,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4298,19 +4310,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4321,19 +4333,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4344,19 +4356,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4367,19 +4379,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4390,19 +4402,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4413,19 +4425,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4436,19 +4448,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4459,19 +4471,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4482,19 +4494,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>161</v>
+        <v>96</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4505,600 +4517,600 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C176" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E176" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="196">
@@ -5106,22 +5118,22 @@
         <v>166</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E196" s="2" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>33</v>
+        <v>169</v>
       </c>
     </row>
     <row r="197">
@@ -5129,22 +5141,22 @@
         <v>166</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G197" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="198">
@@ -5152,22 +5164,22 @@
         <v>166</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>171</v>
+        <v>112</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>33</v>
+        <v>169</v>
       </c>
     </row>
     <row r="199">
@@ -5175,22 +5187,22 @@
         <v>166</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>33</v>
+        <v>169</v>
       </c>
     </row>
     <row r="200">
@@ -5198,21 +5210,251 @@
         <v>166</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D200" s="2" t="s">
+      <c r="C208" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D208" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E200" s="2" t="s">
+      <c r="E208" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G200" s="2" t="s">
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
         <v>33</v>
       </c>
     </row>
